--- a/5. Evaluation/port_hist.xlsx
+++ b/5. Evaluation/port_hist.xlsx
@@ -406,13 +406,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>40544</v>
+        <v>42370</v>
       </c>
       <c r="C2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D2">
-        <v>30.3804445088915</v>
+        <v>624.6820953773995</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -420,13 +420,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="2">
-        <v>40575</v>
+        <v>42401</v>
       </c>
       <c r="C3">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D3">
-        <v>30.3804445088915</v>
+        <v>624.6820953773995</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -434,13 +434,13 @@
         <v>0</v>
       </c>
       <c r="B4" s="2">
-        <v>40603</v>
+        <v>42430</v>
       </c>
       <c r="C4">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D4">
-        <v>30.3804445088915</v>
+        <v>624.6820953773995</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="B5" s="2">
-        <v>40634</v>
+        <v>42461</v>
       </c>
       <c r="C5">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D5">
-        <v>30.3804445088915</v>
+        <v>624.6820953773995</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -462,13 +462,13 @@
         <v>0</v>
       </c>
       <c r="B6" s="2">
-        <v>40664</v>
+        <v>42491</v>
       </c>
       <c r="C6">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D6">
-        <v>30.3804445088915</v>
+        <v>624.6820953773995</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -476,13 +476,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="2">
-        <v>40695</v>
+        <v>42522</v>
       </c>
       <c r="C7">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D7">
-        <v>30.3804445088915</v>
+        <v>624.6820953773995</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -490,13 +490,13 @@
         <v>0</v>
       </c>
       <c r="B8" s="2">
-        <v>40725</v>
+        <v>42552</v>
       </c>
       <c r="C8">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D8">
-        <v>30.3804445088915</v>
+        <v>624.6820953773995</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -504,13 +504,13 @@
         <v>0</v>
       </c>
       <c r="B9" s="2">
-        <v>40756</v>
+        <v>42583</v>
       </c>
       <c r="C9">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D9">
-        <v>30.3804445088915</v>
+        <v>624.6820953773995</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -518,13 +518,13 @@
         <v>0</v>
       </c>
       <c r="B10" s="2">
-        <v>40787</v>
+        <v>42614</v>
       </c>
       <c r="C10">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D10">
-        <v>30.3804445088915</v>
+        <v>624.6820953773995</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -532,13 +532,13 @@
         <v>0</v>
       </c>
       <c r="B11" s="2">
-        <v>40817</v>
+        <v>42644</v>
       </c>
       <c r="C11">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D11">
-        <v>30.3804445088915</v>
+        <v>624.6820953773995</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -546,13 +546,13 @@
         <v>0</v>
       </c>
       <c r="B12" s="2">
-        <v>40848</v>
+        <v>42675</v>
       </c>
       <c r="C12">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D12">
-        <v>30.3804445088915</v>
+        <v>624.6820953773995</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -560,13 +560,13 @@
         <v>0</v>
       </c>
       <c r="B13" s="2">
-        <v>40878</v>
+        <v>42705</v>
       </c>
       <c r="C13">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D13">
-        <v>30.3804445088915</v>
+        <v>624.6820953773995</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -574,13 +574,13 @@
         <v>0</v>
       </c>
       <c r="B14" s="2">
-        <v>40909</v>
+        <v>42736</v>
       </c>
       <c r="C14">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D14">
-        <v>30.3804445088915</v>
+        <v>624.6820953773995</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -588,13 +588,13 @@
         <v>0</v>
       </c>
       <c r="B15" s="2">
-        <v>40940</v>
+        <v>42767</v>
       </c>
       <c r="C15">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D15">
-        <v>30.3804445088915</v>
+        <v>624.6820953773995</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -602,13 +602,13 @@
         <v>0</v>
       </c>
       <c r="B16" s="2">
-        <v>40969</v>
+        <v>42795</v>
       </c>
       <c r="C16">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D16">
-        <v>30.3804445088915</v>
+        <v>624.6820953773995</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -616,13 +616,13 @@
         <v>0</v>
       </c>
       <c r="B17" s="2">
-        <v>41000</v>
+        <v>42826</v>
       </c>
       <c r="C17">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D17">
-        <v>30.3804445088915</v>
+        <v>624.6820953773995</v>
       </c>
     </row>
   </sheetData>
